--- a/Raw/noACmm.xlsx
+++ b/Raw/noACmm.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gpvru\py_repo\melt_curve_proc\Fine experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gpvru\py_repo\melt_curve_proc\Raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8C13FB-6E6E-4ABE-B60B-0DC667DD4ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAFB985-1EE2-4DF0-8CF3-F133278D7428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FD87DA84-1CBF-4FED-A95B-8F050BA71D74}"/>
   </bookViews>
   <sheets>
     <sheet name="noACmm 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>T</t>
   </si>
@@ -61,6 +62,9 @@
   </si>
   <si>
     <t>pH 8.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Info </t>
   </si>
 </sst>
 </file>
@@ -90,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -113,13 +117,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -436,15 +452,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04C1BC2-8373-4689-9F92-3E0A2908D7CA}">
-  <dimension ref="A1:I302"/>
+  <dimension ref="A1:S302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1048576"/>
+      <selection activeCell="H302" sqref="A252:H302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,8 +488,43 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="str">
+        <f>CONCATENATE($K1,B1)</f>
+        <v>Info pH 5.0</v>
+      </c>
+      <c r="M1" t="str">
+        <f t="shared" ref="M1:S1" si="0">CONCATENATE($K1,C1)</f>
+        <v>Info pH 5.5</v>
+      </c>
+      <c r="N1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info pH 6.0</v>
+      </c>
+      <c r="O1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info pH 6.5</v>
+      </c>
+      <c r="P1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info pH 7.0</v>
+      </c>
+      <c r="Q1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info pH 7.5</v>
+      </c>
+      <c r="R1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info pH 8.0</v>
+      </c>
+      <c r="S1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info pH 8.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -502,7 +553,7 @@
         <v>91637.34375</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5.3</v>
       </c>
@@ -531,7 +582,7 @@
         <v>90274.5234375</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5.6</v>
       </c>
@@ -559,8 +610,32 @@
       <c r="I4">
         <v>89502.9765625</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>-3.1721201750000004E-2</v>
+      </c>
+      <c r="M4">
+        <v>-3.1694010500000001E-2</v>
+      </c>
+      <c r="N4">
+        <v>-2.9934073500000002E-2</v>
+      </c>
+      <c r="O4">
+        <v>-3.1624968125E-2</v>
+      </c>
+      <c r="P4">
+        <v>-2.845498825E-2</v>
+      </c>
+      <c r="Q4">
+        <v>-2.7900707124999997E-2</v>
+      </c>
+      <c r="R4">
+        <v>-2.4962796374999999E-2</v>
+      </c>
+      <c r="S4">
+        <v>-2.5240118857142856E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5.9</v>
       </c>
@@ -589,7 +664,7 @@
         <v>89185.65625</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6.2</v>
       </c>
@@ -617,8 +692,32 @@
       <c r="I6">
         <v>87695.3125</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>12.94157146875</v>
+      </c>
+      <c r="M6">
+        <v>13.093469957142858</v>
+      </c>
+      <c r="N6">
+        <v>12.867688251250001</v>
+      </c>
+      <c r="O6">
+        <v>13.15140494125</v>
+      </c>
+      <c r="P6">
+        <v>12.995899881249999</v>
+      </c>
+      <c r="Q6">
+        <v>12.808208632500001</v>
+      </c>
+      <c r="R6">
+        <v>12.581833996249999</v>
+      </c>
+      <c r="S6">
+        <v>12.550418217142859</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6.5</v>
       </c>
@@ -647,7 +746,7 @@
         <v>87460.734375</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6.8</v>
       </c>
@@ -676,7 +775,7 @@
         <v>86777.625</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7.1</v>
       </c>
@@ -705,7 +804,7 @@
         <v>85902.3984375</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7.4</v>
       </c>
@@ -734,7 +833,7 @@
         <v>85169.6875</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7.6999999999999993</v>
       </c>
@@ -763,7 +862,7 @@
         <v>84036.0625</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -792,7 +891,7 @@
         <v>84074.0703125</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8.3000000000000007</v>
       </c>
@@ -821,7 +920,7 @@
         <v>83236.6796875</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8.6</v>
       </c>
@@ -850,7 +949,7 @@
         <v>82730.3125</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8.9</v>
       </c>
@@ -879,7 +978,7 @@
         <v>82259.5</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9.1999999999999993</v>
       </c>
@@ -9200,6 +9299,50 @@
       </c>
       <c r="I302">
         <v>70962.1171875</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56235BF4-C2EB-4EB8-AC4F-7A0A6A533F58}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>-2.2487562283484998E-2</v>
+      </c>
+      <c r="B1">
+        <v>-2.1672765759720901E-2</v>
+      </c>
+      <c r="C1">
+        <v>-2.2905676262001601E-2</v>
+      </c>
+      <c r="D1">
+        <v>-1.8437482971986399E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>13.011315815928199</v>
+      </c>
+      <c r="B2">
+        <v>12.732038214413</v>
+      </c>
+      <c r="C2">
+        <v>12.9405148251725</v>
+      </c>
+      <c r="D2">
+        <v>12.694209846824499</v>
       </c>
     </row>
   </sheetData>
